--- a/Codebook_STOP_MPX_20230417.xlsx
+++ b/Codebook_STOP_MPX_20230417.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26412"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="738" documentId="11_9CC678B6E8443F9E32BA966B8546CF7F1D7887A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA7D3CE6-AE57-4633-B76A-23EF9BB9C9BE}"/>
+  <xr:revisionPtr revIDLastSave="739" documentId="11_9CC678B6E8443F9E32BA966B8546CF7F1D7887A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10CCFBA8-E674-47DC-9E0E-F43731DC66AD}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="482">
   <si>
     <t>Variable</t>
   </si>
@@ -2244,8 +2244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="E181" sqref="E181"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3401,9 +3401,7 @@
       <c r="B62" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>135</v>
-      </c>
+      <c r="C62" s="3"/>
       <c r="D62" s="3" t="s">
         <v>132</v>
       </c>
@@ -6168,6 +6166,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010061E35DE47651DF429210691EF696823B" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="c6ebacde51774820634ece3fb3906119">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="315e3a4a-b38c-4f09-b07f-0ddfbc963ba0" xmlns:ns3="4f6e94ee-60ff-406f-a44a-4d5e50ef0010" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fb869d37cf630381597fde8ca37b9a74" ns2:_="" ns3:_="">
     <xsd:import namespace="315e3a4a-b38c-4f09-b07f-0ddfbc963ba0"/>
@@ -6404,19 +6411,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A42D2133-A653-4AC0-A00E-D54F242BE6CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85DD24D7-952A-4E41-A016-EFA62D065AE8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85DD24D7-952A-4E41-A016-EFA62D065AE8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A42D2133-A653-4AC0-A00E-D54F242BE6CC}"/>
 </file>